--- a/pred_ohlcv/54_21/2020-01-16 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 DASH ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-833.7037599099999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-794.0709599099999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-764.44175991</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-764.10055991</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-753.15685991</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-753.48685991</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-682.65455991</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-682.65455991</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-679.31465991</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-685.7682599100001</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-685.7623599100001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-690.1198599100001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-694.10275991</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-690.3158599100001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-690.3100599100001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-690.3100599100001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-689.0953599100001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-687.9331599100001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-853.6527599099999</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-838.8569599099999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-831.4766599099999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-841.9540599099998</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-841.9485599099999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-839.9424599099999</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-806.89595991</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-806.92855991</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-816.30535991</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-816.29975991</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-816.32435991</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-816.31745991</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-817.33565991</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-817.32335991</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-817.31565991</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-859.61455991</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-852.4042599100001</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-856.9060599100001</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-856.99265991</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-857.0187599100001</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-857.0256599100001</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-857.0256599100001</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-856.90845991</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-861.0169599100001</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-861.0169599100001</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-750.9245599100002</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-765.8732599100002</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-766.0688599100002</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-766.0577599100002</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-766.0632599100002</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-766.0687599100002</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-766.0682599100002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-766.0856599100001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-841.7184599099999</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-840.7126599099998</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-840.7126599099998</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-765.4074599099998</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-765.4007599099998</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-833.3258599099998</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-832.3182599099998</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-832.3182599099998</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-821.5853599099999</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-821.4369599099998</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-810.12675991</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-803.2267599100001</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-793.4407599100001</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1376.35030167</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1311.91120167</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1191.17610167</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1313.88630167</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1296.56220167</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1219.90810167</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1332.30940167</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1255.29525072</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>2100.72766779</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>2072.55356779</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2007.99366779</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1997.26026779</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1962.60226779</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1863.87056779</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1882.31853409</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1860.71903409</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1899.79363409</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1929.97033409</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1930.84773409</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1906.85053409</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1927.54957367</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1919.39157367</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1902.45027367</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1711.65481325</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1711.66351325</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1685.35911325</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2006.35851325</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 DASH ohlcv.xlsx
@@ -2082,7 +2082,7 @@
         <v>-831.4766599099999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-841.9540599099998</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-841.9485599099999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-839.9424599099999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-806.89595991</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-806.92855991</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-816.30535991</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-816.29975991</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-816.32435991</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-816.31745991</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-817.33565991</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-817.32335991</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-817.31565991</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-859.61455991</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-852.4042599100001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-856.9060599100001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-856.99265991</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-857.0187599100001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-857.0256599100001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-857.0256599100001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-856.90845991</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-861.0169599100001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-861.0169599100001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-860.5128599100001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-860.5339599100001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-863.4395599100002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-863.4328599100002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-863.4402599100001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-863.4460599100001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-863.2754599100001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-821.4369599099998</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-885.2473599099999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-878.8644599099999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-833.99295991</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-773.7929599099999</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-774.5793599099999</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-771.0243599099999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-772.0243599099999</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-813.01745991</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-813.01745991</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-813.08495991</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-810.14955991</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-810.12675991</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-803.2267599100001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-793.4407599100001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-784.4407599100001</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-795.6359599100001</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-795.5909546600001</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-804.28635466</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-824.12875466</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-813.02785466</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-811.73625466</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-820.96931416</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-826.3581141599999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-882.7865141599999</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-825.46251416</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-793.10231416</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-774.50051416</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-761.0554141599999</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-822.5124141599999</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1376.35030167</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1311.91120167</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1191.17610167</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1313.88630167</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1296.56220167</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1219.90810167</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1332.30940167</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1255.29525072</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>2010.16779559</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>2154.37845252</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>2202.51013771</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>2160.89656779</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>2100.72766779</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>2072.55356779</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2007.99366779</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1997.26026779</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1962.60226779</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1863.87056779</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1899.79363409</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1929.97033409</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1711.66351325</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
